--- a/juan/coop_seek_and_find_v2.xlsx
+++ b/juan/coop_seek_and_find_v2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="219">
   <si>
     <t>Trainer</t>
   </si>
@@ -364,136 +364,175 @@
     <t>75 minutes by accident</t>
   </si>
   <si>
+    <t>2 drops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper </t>
+  </si>
+  <si>
+    <t>modified barrier</t>
+  </si>
+  <si>
+    <t>Transparent_holes / light</t>
+  </si>
+  <si>
+    <t>Transparent_holes / dark</t>
+  </si>
+  <si>
+    <t>Rewarded trials coop016</t>
+  </si>
+  <si>
+    <t>Rewarded trials coop017</t>
+  </si>
+  <si>
+    <t>iti = 0  by accident</t>
+  </si>
+  <si>
+    <t>coop016x017</t>
+  </si>
+  <si>
+    <t>go back to original stage 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti decreased to 5. LED kept turned on failed trials. session extended to 60 min </t>
+  </si>
+  <si>
+    <t>5 drops</t>
+  </si>
+  <si>
+    <t>What is happening? they are not able to do more than 40 and the performace is not getting better</t>
+  </si>
+  <si>
+    <t>What is happening? they need at least 70 to be over the baseline</t>
+  </si>
+  <si>
+    <t>go back to stage 2 to increment pokes. pokePerMouse=5</t>
+  </si>
+  <si>
+    <t>go back to stage 2 to increment pokes. pokePerMouse=7</t>
+  </si>
+  <si>
+    <t>Decided to increment poke a little more. pokePerMouse = 9</t>
+  </si>
+  <si>
+    <t>target = 10</t>
+  </si>
+  <si>
+    <t>pokePerMouse=9</t>
+  </si>
+  <si>
+    <t>pokePerMouse=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they did 56 in 30 minutes! </t>
+  </si>
+  <si>
+    <t>If they do similar numbers to stage 3 or stage 4 of coop014x014 start solid barrier</t>
+  </si>
+  <si>
+    <t>did not turn the lights</t>
+  </si>
+  <si>
+    <t>increased to 2 drops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong training </t>
+  </si>
+  <si>
+    <t>These were not trained using a barrier before. I do not know their performance using a barrier yet</t>
+  </si>
+  <si>
+    <t>selected for dark</t>
+  </si>
+  <si>
+    <t>No barrier / light</t>
+  </si>
+  <si>
+    <t>No barrier / dark</t>
+  </si>
+  <si>
+    <t>No train</t>
+  </si>
+  <si>
+    <t>Rewarded trials coop018</t>
+  </si>
+  <si>
+    <t>Rewarded trials coop019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wt incremented to 3 seconds. did not work. </t>
+  </si>
+  <si>
+    <t>1--5</t>
+  </si>
+  <si>
+    <t>pokeDuration:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Restart. Mice were not doing their task.They were above baseweightline</t>
+  </si>
+  <si>
+    <t>They were not able to do more than 2 pokes per mouse. I will change to perforated barrier</t>
+  </si>
+  <si>
+    <t>pokePerMouse:4</t>
+  </si>
+  <si>
+    <t>water out</t>
+  </si>
+  <si>
+    <t>i will increment the poke to 15</t>
+  </si>
+  <si>
+    <t>pokepermouse=3</t>
+  </si>
+  <si>
+    <t>drops = 3</t>
+  </si>
+  <si>
+    <t>pokepermouse=5</t>
+  </si>
+  <si>
+    <t>pokepermouse=8</t>
+  </si>
+  <si>
+    <t>pokePerMouse = 10</t>
+  </si>
+  <si>
+    <t>pokePerMouse = 13</t>
+  </si>
+  <si>
+    <t>pokePerMouse = 15</t>
+  </si>
+  <si>
+    <t>drops = 2</t>
+  </si>
+  <si>
+    <t>training: 30 min</t>
+  </si>
+  <si>
     <t>increase to 3 drops</t>
   </si>
   <si>
-    <t>Rewarded trials coop016</t>
-  </si>
-  <si>
-    <t>Rewarded trials coop017</t>
-  </si>
-  <si>
-    <t>iti = 0  by accident</t>
-  </si>
-  <si>
-    <t>coop016x017</t>
-  </si>
-  <si>
-    <t>go back to original stage 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iti decreased to 5. LED kept turned on failed trials. session extended to 60 min </t>
-  </si>
-  <si>
-    <t>5 drops</t>
-  </si>
-  <si>
-    <t>What is happening? they are not able to do more than 40 and the performace is not getting better</t>
-  </si>
-  <si>
-    <t>What is happening? they need at least 70 to be over the baseline</t>
-  </si>
-  <si>
-    <t>go back to stage 2 to increment pokes. pokePerMouse=5</t>
-  </si>
-  <si>
-    <t>go back to stage 2 to increment pokes. pokePerMouse=7</t>
-  </si>
-  <si>
-    <t>Decided to increment poke a little more. pokePerMouse = 9</t>
-  </si>
-  <si>
-    <t>target = 10</t>
-  </si>
-  <si>
-    <t>pokePerMouse=9</t>
-  </si>
-  <si>
-    <t>pokePerMouse=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they did 56 in 30 minutes! </t>
-  </si>
-  <si>
-    <t>If they do similar numbers to stage 3 or stage 4 of coop014x014 start solid barrier</t>
-  </si>
-  <si>
-    <t>did not turn the lights</t>
-  </si>
-  <si>
-    <t>increased to 2 drops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong training </t>
-  </si>
-  <si>
-    <t>These were not trained using a barrier before. I do not know their performance using a barrier yet</t>
-  </si>
-  <si>
-    <t>Rewarded trials coop018</t>
-  </si>
-  <si>
-    <t>Rewarded trials coop019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wt incremented to 3 seconds. did not work. </t>
-  </si>
-  <si>
-    <t>1--5</t>
-  </si>
-  <si>
-    <t>pokeDuration:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Restart. Mice were not doing their task.They were above baseweightline</t>
-  </si>
-  <si>
-    <t>They were not able to do more than 2 pokes per mouse. I will change to perforated barrier</t>
-  </si>
-  <si>
-    <t>pokePerMouse:4</t>
-  </si>
-  <si>
-    <t>water out</t>
-  </si>
-  <si>
-    <t>i will increment the poke to 15</t>
-  </si>
-  <si>
-    <t>pokepermouse=3</t>
-  </si>
-  <si>
-    <t>drops = 3</t>
-  </si>
-  <si>
-    <t>pokepermouse=5</t>
-  </si>
-  <si>
-    <t>pokepermouse=8</t>
-  </si>
-  <si>
-    <t>pokePerMouse = 10</t>
-  </si>
-  <si>
-    <t>pokePerMouse = 13</t>
-  </si>
-  <si>
-    <t>pokePerMouse = 15</t>
-  </si>
-  <si>
-    <t>drops = 2</t>
-  </si>
-  <si>
-    <t>training: 30 min</t>
-  </si>
-  <si>
     <t>wtf</t>
   </si>
   <si>
-    <t>2 drops</t>
+    <t>paper added to the side walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrier modified </t>
+  </si>
+  <si>
+    <t>Only 30 minutes, i accidentally did not start</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>perforated/new</t>
   </si>
   <si>
     <t>Rewarded trials coop020</t>
@@ -559,7 +598,52 @@
     <t>The idea is for them to get enough water so i do not have to supplement them. since we are in a loop right now.</t>
   </si>
   <si>
-    <t>I will start with 5 pokes</t>
+    <t>I  started with 3 pokes</t>
+  </si>
+  <si>
+    <t>I unlocked the number of pokes. PokePerMouse=3.  poke increment = 3. threshold = 10</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=3.  poke increment = 3. threshold = 10</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=3.  poke increment = 3. threshold = 5</t>
+  </si>
+  <si>
+    <t>They do not do more than 30 trials. Why??</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=3.  poke increment = 3. threshold = 5</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=1. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=1.  poke increment = 2. threshold = 20</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=3. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=3. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=3. poke increment = 2</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=5. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=7. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=10. no poke increment</t>
+  </si>
+  <si>
+    <t>drops = 4. PokePerMouse=10</t>
+  </si>
+  <si>
+    <t>drops = 3. PokePerMouse=10</t>
   </si>
   <si>
     <t>Rewarded trials coop022</t>
@@ -581,16 +665,24 @@
   </si>
   <si>
     <t>decrease drops to 2</t>
+  </si>
+  <si>
+    <t>1 drop</t>
+  </si>
+  <si>
+    <t>3 drops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="d-m"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -790,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1064,9 +1156,6 @@
     <xf borderId="1" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,36 +1213,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7162800" cy="4057650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3941,6 +4001,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -3951,7 +4012,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.88"/>
+    <col customWidth="1" min="5" max="5" width="19.5"/>
     <col customWidth="1" min="7" max="7" width="14.63"/>
     <col customWidth="1" min="8" max="8" width="17.0"/>
     <col customWidth="1" min="9" max="9" width="18.63"/>
@@ -4140,7 +4201,7 @@
         <v>4.0</v>
       </c>
       <c r="O5" s="23">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -6119,7 +6180,7 @@
         <v>45101.0</v>
       </c>
       <c r="C67" s="15">
-        <f t="shared" ref="C67:C81" si="8">C66+1</f>
+        <f t="shared" ref="C67:C101" si="8">C66+1</f>
         <v>2</v>
       </c>
       <c r="D67" s="72">
@@ -6371,7 +6432,7 @@
         <v>67.0</v>
       </c>
       <c r="H76" s="43">
-        <f t="shared" ref="H76:H79" si="10">(AVERAGE(G76)/F76)</f>
+        <f t="shared" ref="H76:H87" si="10">(AVERAGE(G76)/F76)</f>
         <v>0.0882740448</v>
       </c>
       <c r="I76" s="8" t="s">
@@ -6465,12 +6526,12 @@
         <v>0.09523809524</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B80" s="71">
         <v>45114.0</v>
@@ -6485,14 +6546,620 @@
       <c r="E80" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="F80" s="8">
+        <v>861.0</v>
+      </c>
+      <c r="G80" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="H80" s="43">
+        <f t="shared" si="10"/>
+        <v>0.0325203252</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B81" s="71">
         <v>45115.0</v>
       </c>
       <c r="C81" s="15">
         <f t="shared" si="8"/>
         <v>16</v>
+      </c>
+      <c r="D81" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="8">
+        <v>893.0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="H81" s="43">
+        <f t="shared" si="10"/>
+        <v>0.08398656215</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="71">
+        <v>45116.0</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D82" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="8">
+        <v>770.0</v>
+      </c>
+      <c r="G82" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="H82" s="43">
+        <f t="shared" si="10"/>
+        <v>0.1194805195</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="71">
+        <v>45117.0</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D83" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="8">
+        <v>734.0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="H83" s="43">
+        <f t="shared" si="10"/>
+        <v>0.1403269755</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="71">
+        <v>45118.0</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="D84" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1143.0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="H84" s="43">
+        <f t="shared" si="10"/>
+        <v>0.1067366579</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="71">
+        <v>45119.0</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="D85" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="8">
+        <v>579.0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="H85" s="43">
+        <f t="shared" si="10"/>
+        <v>0.1882556131</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="71">
+        <v>45120.0</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="D86" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="8">
+        <v>843.0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="H86" s="43">
+        <f t="shared" si="10"/>
+        <v>0.1221826809</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="71">
+        <v>45121.0</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="D87" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="8">
+        <v>515.0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="H87" s="43">
+        <f t="shared" si="10"/>
+        <v>0.2291262136</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="71">
+        <v>45122.0</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D88" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" s="43"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="71">
+        <v>45123.0</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="D89" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="8">
+        <v>715.0</v>
+      </c>
+      <c r="G89" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="H89" s="43">
+        <f t="shared" ref="H89:H94" si="11">(AVERAGE(G89)/F89)</f>
+        <v>0.158041958</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="71">
+        <v>45124.0</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D90" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="8">
+        <v>851.0</v>
+      </c>
+      <c r="G90" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="H90" s="43">
+        <f t="shared" si="11"/>
+        <v>0.1457109283</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="71">
+        <v>45125.0</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="D91" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="8">
+        <v>789.0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="H91" s="43">
+        <f t="shared" si="11"/>
+        <v>0.1533586819</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="71">
+        <v>45126.0</v>
+      </c>
+      <c r="C92" s="15">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="D92" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="H92" s="43">
+        <f t="shared" si="11"/>
+        <v>0.1297968397</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="71">
+        <v>45127.0</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="D93" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="8">
+        <v>899.0</v>
+      </c>
+      <c r="G93" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="H93" s="43">
+        <f t="shared" si="11"/>
+        <v>0.1345939933</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="71">
+        <v>45128.0</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="D94" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="8">
+        <v>729.0</v>
+      </c>
+      <c r="G94" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="H94" s="43">
+        <f t="shared" si="11"/>
+        <v>0.1687242798</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="71">
+        <v>45129.0</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="D95" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H95" s="43"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="71">
+        <v>45130.0</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="D96" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1052.0</v>
+      </c>
+      <c r="G96" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="H96" s="43">
+        <f t="shared" ref="H96:H101" si="12">(AVERAGE(G96)/F96)</f>
+        <v>0.1169201521</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="71">
+        <v>45131.0</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="D97" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="8">
+        <v>686.0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="H97" s="43">
+        <f t="shared" si="12"/>
+        <v>0.1807580175</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="71">
+        <v>45132.0</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="D98" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F98" s="8">
+        <v>713.0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="H98" s="43">
+        <f t="shared" si="12"/>
+        <v>0.1879382889</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="71">
+        <v>45133.0</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="D99" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="8">
+        <v>546.0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="H99" s="43">
+        <f t="shared" si="12"/>
+        <v>0.2307692308</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="71">
+        <v>45134.0</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="D100" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F100" s="8">
+        <v>857.0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="H100" s="43">
+        <f t="shared" si="12"/>
+        <v>0.1551925321</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="71">
+        <v>45135.0</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="D101" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" s="8">
+        <v>881.0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="H101" s="43">
+        <f t="shared" si="12"/>
+        <v>0.1316685585</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6503,6 +7170,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -6543,10 +7211,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -6627,22 +7295,22 @@
         <v>0.09302325581</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -6675,7 +7343,7 @@
         <v>0.28125</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>14</v>
@@ -6894,7 +7562,7 @@
         <v>0.03683241252</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L9" s="27" t="s">
         <v>26</v>
@@ -7269,7 +7937,7 @@
         <v>0.05352480418</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -7303,7 +7971,7 @@
         <v>0.05908419498</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -7337,7 +8005,7 @@
         <v>0.0624</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -7405,7 +8073,7 @@
         <v>0.07974481659</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -7439,7 +8107,7 @@
         <v>0.09228187919</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -7473,7 +8141,7 @@
         <v>0.06300114548</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -7538,10 +8206,10 @@
         <v>0.09201388889</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
@@ -7575,7 +8243,7 @@
         <v>0.09107142857</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -7609,7 +8277,7 @@
         <v>0.09927360775</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
@@ -7674,7 +8342,7 @@
         <v>0.1171548117</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
@@ -7708,7 +8376,7 @@
         <v>0.1818181818</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>72</v>
@@ -7745,7 +8413,7 @@
         <v>0.1495327103</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K31" s="46">
         <v>0.22</v>
@@ -8013,7 +8681,7 @@
         <v>0.1348484848</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
@@ -8758,7 +9426,7 @@
         <v>0.3206650831</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -8916,7 +9584,7 @@
         <v>45103.0</v>
       </c>
       <c r="C69" s="15">
-        <f t="shared" ref="C69:C83" si="7">C68+1</f>
+        <f t="shared" ref="C69:C103" si="7">C68+1</f>
         <v>2</v>
       </c>
       <c r="D69" s="72">
@@ -9020,7 +9688,7 @@
         <v>0.0723830735</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -9096,11 +9764,11 @@
         <v>83.0</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" ref="I75:I79" si="9">(AVERAGE(G75:H75)/F75)</f>
+        <f t="shared" ref="I75:I80" si="9">(AVERAGE(G75:H75)/F75)</f>
         <v>0.0688225539</v>
       </c>
       <c r="K75" s="82" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -9220,7 +9888,7 @@
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B80" s="4">
         <v>45114.0</v>
@@ -9235,8 +9903,24 @@
       <c r="E80" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="F80" s="8">
+        <v>1370.0</v>
+      </c>
+      <c r="G80" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" si="9"/>
+        <v>0.04598540146</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B81" s="4">
         <v>45115.0</v>
       </c>
@@ -9244,8 +9928,21 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
+      <c r="D81" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="K81" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="B82" s="4">
         <v>45116.0</v>
       </c>
@@ -9253,8 +9950,18 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="D82" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I82" s="9"/>
     </row>
     <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B83" s="4">
         <v>45117.0</v>
       </c>
@@ -9262,9 +9969,585 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
+      <c r="D83" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="8">
+        <v>576.0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" ref="I83:I87" si="10">(AVERAGE(G83:H83)/F83)</f>
+        <v>0.1805555556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45118.0</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D84" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1041.0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="I84" s="9">
+        <f t="shared" si="10"/>
+        <v>0.06820365034</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45119.0</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D85" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="10"/>
+        <v>0.08690744921</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45120.0</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D86" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="8">
+        <v>953.0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="I86" s="9">
+        <f t="shared" si="10"/>
+        <v>0.09758656873</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45121.0</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D87" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="8">
+        <v>702.0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="I87" s="9">
+        <f t="shared" si="10"/>
+        <v>0.150997151</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45122.0</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="D88" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45123.0</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="D89" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1052.0</v>
+      </c>
+      <c r="G89" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="I89" s="9">
+        <f t="shared" ref="I89:I94" si="11">(AVERAGE(G89:H89)/F89)</f>
+        <v>0.08840304183</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45124.0</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="D90" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" s="8">
+        <v>672.0</v>
+      </c>
+      <c r="G90" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="11"/>
+        <v>0.1651785714</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45125.0</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="D91" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="I91" s="9">
+        <f t="shared" si="11"/>
+        <v>0.1856287425</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="4">
+        <v>45126.0</v>
+      </c>
+      <c r="C92" s="15">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="D92" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="8">
+        <v>700.0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="I92" s="9">
+        <f t="shared" si="11"/>
+        <v>0.1671428571</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="4">
+        <v>45127.0</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="D93" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="8">
+        <v>831.0</v>
+      </c>
+      <c r="G93" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="I93" s="9">
+        <f t="shared" si="11"/>
+        <v>0.1347773767</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="4">
+        <v>45128.0</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D94" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" s="8">
+        <v>637.0</v>
+      </c>
+      <c r="G94" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="I94" s="9">
+        <f t="shared" si="11"/>
+        <v>0.2244897959</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45129.0</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D95" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45130.0</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="D96" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="8">
+        <v>868.0</v>
+      </c>
+      <c r="G96" s="8">
+        <v>162.0</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" ref="I96:I101" si="12">(AVERAGE(G96:H96)/F96)</f>
+        <v>0.1866359447</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="4">
+        <v>45131.0</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="D97" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="I97" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2944038929</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45132.0</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D98" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="8">
+        <v>561.0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="I98" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2228163993</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="4">
+        <v>45133.0</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D99" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="8">
+        <v>537.0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>153.0</v>
+      </c>
+      <c r="I99" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2849162011</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="4">
+        <v>45134.0</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="D100" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="8">
+        <v>497.0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="I100" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2655935614</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="4">
+        <v>45135.0</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="D101" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="8">
+        <v>474.0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="I101" s="9">
+        <f t="shared" si="12"/>
+        <v>0.3628691983</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="4">
+        <v>45136.0</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D102" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="4">
+        <v>45137.0</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="D103" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="4">
+        <v>45138.0</v>
+      </c>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G63:H63"/>
@@ -9307,20 +10590,18 @@
     <mergeCell ref="G101:H101"/>
     <mergeCell ref="G102:H102"/>
     <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G111:H111"/>
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="G114:H114"/>
     <mergeCell ref="G115:H115"/>
     <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
     <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
     <mergeCell ref="G106:H106"/>
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="G108:H108"/>
     <mergeCell ref="G109:H109"/>
     <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9339,10 +10620,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.88"/>
+    <col customWidth="1" min="5" max="5" width="19.5"/>
     <col customWidth="1" min="7" max="8" width="14.63"/>
     <col customWidth="1" min="9" max="9" width="17.0"/>
-    <col customWidth="1" min="10" max="10" width="21.5"/>
+    <col customWidth="1" min="10" max="10" width="22.63"/>
     <col customWidth="1" min="12" max="12" width="19.75"/>
     <col customWidth="1" min="14" max="14" width="14.5"/>
     <col customWidth="1" min="15" max="15" width="15.88"/>
@@ -9368,10 +10649,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -9453,7 +10734,7 @@
         <v>0.04545454545</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>11</v>
@@ -9570,7 +10851,7 @@
         <v>0.2064846416</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>16</v>
@@ -9634,7 +10915,7 @@
         <v>10.0</v>
       </c>
       <c r="P7" s="23">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -9674,7 +10955,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O8" s="18">
         <v>5.0</v>
@@ -9760,7 +11041,7 @@
         <v>0.02512562814</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>28</v>
@@ -9809,7 +11090,7 @@
         <v>0.03547963206</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L11" s="26" t="s">
         <v>35</v>
@@ -9858,7 +11139,7 @@
         <v>0.003289473684</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>37</v>
@@ -9954,7 +11235,7 @@
         <v>0.7565445026</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L14" s="31" t="s">
         <v>42</v>
@@ -10003,7 +11284,7 @@
         <v>0.02716688228</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>43</v>
@@ -10127,7 +11408,7 @@
         <v>0.0374181478</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -10161,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -10195,7 +11476,7 @@
         <v>0.06313131313</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -10860,10 +12141,10 @@
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -10874,7 +12155,7 @@
         <v>45092.0</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" ref="C42:C66" si="6">1+C41</f>
+        <f t="shared" ref="C42:C72" si="6">1+C41</f>
         <v>1</v>
       </c>
       <c r="D42" s="22">
@@ -10893,14 +12174,14 @@
         <v>42.0</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" ref="I42:I63" si="7">(AVERAGE(G42:H42)/F42)</f>
+        <f t="shared" ref="I42:I71" si="7">(AVERAGE(G42:H42)/F42)</f>
         <v>0.0612244898</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
@@ -10931,7 +12212,7 @@
         <v>0.08617424242</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44">
@@ -10962,7 +12243,7 @@
         <v>0.06745670009</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
@@ -10993,7 +12274,7 @@
         <v>0.06079854809</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
@@ -11024,7 +12305,7 @@
         <v>0.07062436029</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47">
@@ -11055,10 +12336,10 @@
         <v>0.09952606635</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48">
@@ -11089,10 +12370,10 @@
         <v>0.1063040791</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49">
@@ -11207,7 +12488,7 @@
         <v>0.0447761194</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -11465,7 +12746,7 @@
         <v>0.05844155844</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62">
@@ -11496,7 +12777,7 @@
         <v>0.01503759398</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
@@ -11527,12 +12808,12 @@
         <v>0.1122754491</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B64" s="4">
         <v>45114.0</v>
@@ -11547,8 +12828,24 @@
       <c r="E64" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="F64" s="8">
+        <v>860.0</v>
+      </c>
+      <c r="G64" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="7"/>
+        <v>0.06627906977</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B65" s="4">
         <v>45115.0</v>
       </c>
@@ -11556,8 +12853,27 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
+      <c r="D65" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="8">
+        <v>562.0</v>
+      </c>
+      <c r="G65" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1227758007</v>
+      </c>
     </row>
     <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="B66" s="4">
         <v>45116.0</v>
       </c>
@@ -11565,9 +12881,693 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
+      <c r="D66" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="8">
+        <v>798.0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="7"/>
+        <v>0.06015037594</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45117.0</v>
+      </c>
+      <c r="C67" s="15">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="D67" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="8">
+        <v>546.0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1355311355</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45118.0</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="D68" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="8">
+        <v>961.0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" si="7"/>
+        <v>0.0551508845</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45119.0</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="D69" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="8">
+        <v>639.0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1205007825</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45120.0</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="D70" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="8">
+        <v>741.0</v>
+      </c>
+      <c r="G70" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1093117409</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45121.0</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="D71" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="8">
+        <v>655.0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="I71" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1465648855</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45122.0</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="D72" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45123.0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="8">
+        <v>684.0</v>
+      </c>
+      <c r="G73" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" ref="I73:I78" si="8">(AVERAGE(G73:H73)/F73)</f>
+        <v>0.1359649123</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="4">
+        <v>45124.0</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" ref="C74:C91" si="9">1+C73</f>
+        <v>2</v>
+      </c>
+      <c r="D74" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="8">
+        <v>684.0</v>
+      </c>
+      <c r="G74" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="8"/>
+        <v>0.1315789474</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45125.0</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D75" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="8">
+        <v>820.0</v>
+      </c>
+      <c r="G75" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="8"/>
+        <v>0.1085365854</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45126.0</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D76" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="8">
+        <v>599.0</v>
+      </c>
+      <c r="G76" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="I76" s="9">
+        <f t="shared" si="8"/>
+        <v>0.1736227045</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45127.0</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="D77" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="8">
+        <v>807.0</v>
+      </c>
+      <c r="G77" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" si="8"/>
+        <v>0.1115241636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45128.0</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="D78" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="8">
+        <v>471.0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="8"/>
+        <v>0.08492569002</v>
+      </c>
+      <c r="J78" s="82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45129.0</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="D79" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45130.0</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D80" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="8">
+        <v>823.0</v>
+      </c>
+      <c r="G80" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" ref="I80:I85" si="10">(AVERAGE(G80:H80)/F80)</f>
+        <v>0.09113001215</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45131.0</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="D81" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="8">
+        <v>619.0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="I81" s="9">
+        <f t="shared" si="10"/>
+        <v>0.1470113086</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45132.0</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="D82" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1253.0</v>
+      </c>
+      <c r="G82" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="I82" s="9">
+        <f t="shared" si="10"/>
+        <v>0.04628890662</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45133.0</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="D83" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="8">
+        <v>787.0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" si="10"/>
+        <v>0.1029224905</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45134.0</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D84" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1359.0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="I84" s="9">
+        <f t="shared" si="10"/>
+        <v>0.02649006623</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45135.0</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="D85" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="8">
+        <v>861.0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="10"/>
+        <v>0.09291521487</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4">
+        <v>45136.0</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D86" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="4">
+        <v>45137.0</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="D87" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="4">
+        <v>45138.0</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D88" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="8">
+        <v>698.0</v>
+      </c>
+      <c r="G88" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" ref="I88:I89" si="11">(AVERAGE(G88:H88)/F88)</f>
+        <v>0.08309455587</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45139.0</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="D89" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F89" s="8">
+        <v>872.0</v>
+      </c>
+      <c r="G89" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="I89" s="9">
+        <f t="shared" si="11"/>
+        <v>0.05963302752</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="4">
+        <v>45140.0</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="D90" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45141.0</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="D91" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="4">
+        <v>45142.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="4">
+        <v>45143.0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="56">
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -11589,8 +13589,6 @@
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="G66:H66"/>
@@ -11598,6 +13596,34 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11616,8 +13642,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="5" max="5" width="14.88"/>
     <col customWidth="1" min="10" max="10" width="15.13"/>
-    <col customWidth="1" min="11" max="11" width="22.25"/>
+    <col customWidth="1" min="11" max="11" width="24.25"/>
     <col customWidth="1" min="12" max="12" width="20.5"/>
     <col customWidth="1" min="13" max="13" width="12.0"/>
     <col customWidth="1" min="14" max="15" width="15.88"/>
@@ -11643,10 +13670,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I1" s="89" t="s">
         <v>7</v>
@@ -11700,16 +13727,16 @@
         <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -11720,7 +13747,7 @@
         <v>45099.0</v>
       </c>
       <c r="C3" s="15">
-        <f t="shared" ref="C3:C25" si="2">C2+1</f>
+        <f t="shared" ref="C3:C43" si="2">C2+1</f>
         <v>2</v>
       </c>
       <c r="D3" s="6">
@@ -11786,7 +13813,7 @@
         <v>0.09</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>80</v>
@@ -11798,7 +13825,7 @@
         <v>3.0</v>
       </c>
       <c r="O4" s="23">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P4" s="23">
         <v>3.0</v>
@@ -11828,11 +13855,11 @@
         <v>34.0</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I17" si="3">(AVERAGE(G5:H5)/F5)</f>
+        <f t="shared" ref="I5:I43" si="3">(AVERAGE(G5:H5)/F5)</f>
         <v>0.0450928382</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>16</v>
@@ -11878,13 +13905,13 @@
         <v>0.03971962617</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M6" s="23">
         <v>10.0</v>
@@ -11927,7 +13954,7 @@
         <v>0.05619266055</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L7" s="26" t="s">
         <v>22</v>
@@ -11973,7 +14000,7 @@
         <v>0.05862068966</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>26</v>
@@ -12019,7 +14046,7 @@
         <v>0.02879841112</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>28</v>
@@ -12065,22 +14092,22 @@
         <v>0.03309929789</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -12111,7 +14138,7 @@
         <v>0.03302509908</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L11" s="26" t="s">
         <v>35</v>
@@ -12157,7 +14184,7 @@
         <v>0.04397163121</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>37</v>
@@ -12246,7 +14273,7 @@
         <v>0.04406779661</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L14" s="31" t="s">
         <v>42</v>
@@ -12292,10 +14319,10 @@
         <v>0.04545454545</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>43</v>
@@ -12304,13 +14331,13 @@
         <v>282.0</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -12336,7 +14363,7 @@
       <c r="G16" s="91">
         <v>2.0</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="9">
         <f t="shared" si="3"/>
         <v>0.004618937644</v>
       </c>
@@ -12377,12 +14404,12 @@
       <c r="H17" s="91">
         <v>131.0</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="9">
         <f t="shared" si="3"/>
         <v>0.7275449102</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
@@ -12402,12 +14429,24 @@
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="94"/>
+      <c r="F18" s="8">
+        <v>751.0</v>
+      </c>
+      <c r="G18" s="91">
+        <v>41.0</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05459387483</v>
+      </c>
       <c r="K18" s="8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="4">
         <v>45115.0</v>
       </c>
@@ -12415,9 +14454,30 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G19" s="94"/>
+      <c r="D19" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8">
+        <v>617.0</v>
+      </c>
+      <c r="G19" s="91">
+        <v>46.0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.07455429498</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B20" s="4">
         <v>45116.0</v>
       </c>
@@ -12425,9 +14485,33 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G20" s="94"/>
+      <c r="D20" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="G20" s="91">
+        <v>29.0</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05340699816</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="4">
         <v>45117.0</v>
       </c>
@@ -12435,9 +14519,30 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="D21" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8">
+        <v>427.0</v>
+      </c>
+      <c r="G21" s="91">
+        <v>33.0</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.07728337237</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="4">
         <v>45118.0</v>
       </c>
@@ -12445,9 +14550,30 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="D22" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8">
+        <v>455.0</v>
+      </c>
+      <c r="G22" s="91">
+        <v>26.0</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05714285714</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="4">
         <v>45119.0</v>
       </c>
@@ -12455,9 +14581,30 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="D23" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8">
+        <v>646.0</v>
+      </c>
+      <c r="G23" s="91">
+        <v>30.0</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.04643962848</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B24" s="4">
         <v>45120.0</v>
       </c>
@@ -12465,8 +14612,33 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="D24" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="G24" s="91">
+        <v>26.0</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.04788213628</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="4">
         <v>45121.0</v>
       </c>
@@ -12474,9 +14646,631 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="D25" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="G25" s="91">
+        <v>24.0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1025641026</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45122.0</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="G26" s="91">
+        <v>86.0</v>
+      </c>
+      <c r="H26" s="91">
+        <v>87.0</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.7330508475</v>
+      </c>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45123.0</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="G27" s="91">
+        <v>68.0</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5762711864</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45124.0</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8">
+        <v>459.0</v>
+      </c>
+      <c r="G28" s="91">
+        <v>59.0</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.128540305</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45125.0</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8">
+        <v>519.0</v>
+      </c>
+      <c r="G29" s="91">
+        <v>59.0</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1136801541</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45126.0</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="8">
+        <v>468.0</v>
+      </c>
+      <c r="G30" s="91">
+        <v>57.0</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1217948718</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45127.0</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="8">
+        <v>458.0</v>
+      </c>
+      <c r="G31" s="91">
+        <v>44.0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="3"/>
+        <v>0.096069869</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45128.0</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="8">
+        <v>497.0</v>
+      </c>
+      <c r="G32" s="91">
+        <v>48.0</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09657947686</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45129.0</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="8">
+        <v>489.0</v>
+      </c>
+      <c r="G33" s="91">
+        <v>25.0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05112474438</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45130.0</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="8">
+        <v>548.0</v>
+      </c>
+      <c r="G34" s="91">
+        <v>43.0</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="3"/>
+        <v>0.07846715328</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45131.0</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="8">
+        <v>749.0</v>
+      </c>
+      <c r="G35" s="91">
+        <v>43.0</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05740987984</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45132.0</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="8">
+        <v>653.0</v>
+      </c>
+      <c r="G36" s="91">
+        <v>52.0</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="3"/>
+        <v>0.07963246554</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45133.0</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="G37" s="91">
+        <v>43.0</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="3"/>
+        <v>0.104622871</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45134.0</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D38" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="8">
+        <v>620.0</v>
+      </c>
+      <c r="G38" s="91">
+        <v>40.0</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="3"/>
+        <v>0.06451612903</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45135.0</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="8">
+        <v>641.0</v>
+      </c>
+      <c r="G39" s="91">
+        <v>50.0</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="3"/>
+        <v>0.07800312012</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45136.0</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D40" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="8">
+        <v>456.0</v>
+      </c>
+      <c r="G40" s="91">
+        <v>17.0</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="3"/>
+        <v>0.03728070175</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45137.0</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="G41" s="91">
+        <v>18.0</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05421686747</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45138.0</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D42" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="G42" s="91">
+        <v>20.0</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05952380952</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45139.0</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D43" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="8">
+        <v>623.0</v>
+      </c>
+      <c r="G43" s="91">
+        <v>22.0</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="3"/>
+        <v>0.03531300161</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" s="93"/>
+    </row>
+    <row r="46">
+      <c r="G46" s="93"/>
+    </row>
+    <row r="47">
+      <c r="G47" s="93"/>
+    </row>
+    <row r="48">
+      <c r="G48" s="93"/>
+    </row>
+    <row r="49">
+      <c r="G49" s="93"/>
+    </row>
+    <row r="50">
+      <c r="G50" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="44">
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -12484,11 +15278,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
@@ -12496,6 +15285,36 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12514,6 +15333,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="5" max="5" width="19.5"/>
     <col customWidth="1" min="10" max="10" width="15.75"/>
     <col customWidth="1" min="11" max="11" width="13.38"/>
     <col customWidth="1" min="12" max="12" width="20.5"/>
@@ -12540,10 +15360,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="I1" s="89" t="s">
         <v>7</v>
@@ -12597,16 +15417,16 @@
         <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
@@ -12617,7 +15437,7 @@
         <v>45099.0</v>
       </c>
       <c r="C3" s="15">
-        <f t="shared" ref="C3:C21" si="2">C2+1</f>
+        <f t="shared" ref="C3:C47" si="2">C2+1</f>
         <v>2</v>
       </c>
       <c r="D3" s="16">
@@ -12684,7 +15504,7 @@
         <v>0.03072625698</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>80</v>
@@ -12699,7 +15519,7 @@
         <v>3.0</v>
       </c>
       <c r="P4" s="23">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -12730,7 +15550,7 @@
         <v>0.05012531328</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>16</v>
@@ -12776,10 +15596,10 @@
         <v>0.05128205128</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M6" s="23">
         <v>10.0</v>
@@ -12822,7 +15642,7 @@
         <v>0.04731182796</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L7" s="26" t="s">
         <v>22</v>
@@ -12868,7 +15688,7 @@
         <v>0.02808988764</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>26</v>
@@ -12914,7 +15734,7 @@
         <v>0.01527614571</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>28</v>
@@ -12960,22 +15780,22 @@
         <v>0.03732303732</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -13006,10 +15826,10 @@
         <v>0.02967741935</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="L11" s="26" t="s">
         <v>35</v>
@@ -13055,7 +15875,7 @@
         <v>0.04653567735</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>37</v>
@@ -13101,10 +15921,10 @@
         <v>0.02862254025</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>40</v>
@@ -13150,7 +15970,7 @@
         <v>0.04625</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L14" s="31" t="s">
         <v>42</v>
@@ -13196,7 +16016,7 @@
         <v>0.07192982456</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L15" s="34" t="s">
         <v>43</v>
@@ -13205,13 +16025,13 @@
         <v>277.0</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -13242,7 +16062,7 @@
         <v>0.053125</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>45</v>
@@ -13300,13 +16120,24 @@
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="8">
+        <v>647.0</v>
+      </c>
+      <c r="G18" s="91">
+        <v>57.0</v>
+      </c>
+      <c r="I18" s="9">
+        <f>(AVERAGE($G$18:$H$18)/F18)</f>
+        <v>0.08809891808</v>
+      </c>
       <c r="J18" s="8" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="4">
         <v>45115.0</v>
       </c>
@@ -13314,10 +16145,27 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="I19" s="9"/>
+      <c r="D19" s="92">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8">
+        <v>694.0</v>
+      </c>
+      <c r="G19" s="91">
+        <v>84.0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" ref="I19:I43" si="3">AVERAGE(G19:H19)/F19</f>
+        <v>0.121037464</v>
+      </c>
     </row>
     <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B20" s="4">
         <v>45116.0</v>
       </c>
@@ -13325,10 +16173,27 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="I20" s="9"/>
+      <c r="D20" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8">
+        <v>542.0</v>
+      </c>
+      <c r="G20" s="91">
+        <v>49.0</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09040590406</v>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="4">
         <v>45117.0</v>
       </c>
@@ -13336,54 +16201,735 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="I21" s="9"/>
+      <c r="D21" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8">
+        <v>553.0</v>
+      </c>
+      <c r="G21" s="91">
+        <v>58.0</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1048824593</v>
+      </c>
     </row>
     <row r="22">
-      <c r="G22" s="94"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45118.0</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8">
+        <v>670.0</v>
+      </c>
+      <c r="G22" s="91">
+        <v>54.0</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.08059701493</v>
+      </c>
     </row>
     <row r="23">
-      <c r="G23" s="94"/>
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45119.0</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8">
+        <v>526.0</v>
+      </c>
+      <c r="G23" s="91">
+        <v>52.0</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09885931559</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="24">
-      <c r="G24" s="94"/>
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45120.0</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8">
+        <v>535.0</v>
+      </c>
+      <c r="G24" s="91">
+        <v>61.0</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1140186916</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25">
-      <c r="G25" s="94"/>
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45121.0</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="8">
+        <v>746.0</v>
+      </c>
+      <c r="G25" s="91">
+        <v>61.0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.081769437</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26">
-      <c r="G26" s="94"/>
+      <c r="A26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45122.0</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="8">
+        <v>709.0</v>
+      </c>
+      <c r="G26" s="91">
+        <v>59.0</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.0832157969</v>
+      </c>
     </row>
     <row r="27">
-      <c r="G27" s="94"/>
+      <c r="A27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45123.0</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="8">
+        <v>657.0</v>
+      </c>
+      <c r="G27" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09132420091</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28">
-      <c r="G28" s="94"/>
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45124.0</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="8">
+        <v>622.0</v>
+      </c>
+      <c r="G28" s="91">
+        <v>65.0</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1045016077</v>
+      </c>
     </row>
     <row r="29">
-      <c r="G29" s="94"/>
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45125.0</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="8">
+        <v>718.0</v>
+      </c>
+      <c r="G29" s="91">
+        <v>71.0</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09888579387</v>
+      </c>
     </row>
     <row r="30">
-      <c r="G30" s="94"/>
+      <c r="A30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45126.0</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="8">
+        <v>773.0</v>
+      </c>
+      <c r="G30" s="91">
+        <v>75.0</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09702457956</v>
+      </c>
     </row>
     <row r="31">
-      <c r="G31" s="94"/>
+      <c r="A31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45127.0</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="8">
+        <v>825.0</v>
+      </c>
+      <c r="G31" s="91">
+        <v>72.0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="3"/>
+        <v>0.08727272727</v>
+      </c>
     </row>
     <row r="32">
-      <c r="G32" s="94"/>
+      <c r="A32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45128.0</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D32" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="8">
+        <v>816.0</v>
+      </c>
+      <c r="G32" s="91">
+        <v>81.0</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09926470588</v>
+      </c>
     </row>
     <row r="33">
-      <c r="G33" s="94"/>
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45129.0</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="8">
+        <v>589.0</v>
+      </c>
+      <c r="G33" s="91">
+        <v>71.0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1205432937</v>
+      </c>
     </row>
     <row r="34">
-      <c r="G34" s="94"/>
+      <c r="A34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45130.0</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D34" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="8">
+        <v>680.0</v>
+      </c>
+      <c r="G34" s="91">
+        <v>85.0</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="35">
-      <c r="G35" s="94"/>
+      <c r="A35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45131.0</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8">
+        <v>742.0</v>
+      </c>
+      <c r="G35" s="91">
+        <v>76.0</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="3"/>
+        <v>0.102425876</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45132.0</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="8">
+        <v>669.0</v>
+      </c>
+      <c r="G36" s="91">
+        <v>72.0</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1076233184</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45133.0</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="8">
+        <v>719.0</v>
+      </c>
+      <c r="G37" s="91">
+        <v>68.0</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09457579972</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45134.0</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D38" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="8">
+        <v>673.0</v>
+      </c>
+      <c r="G38" s="91">
+        <v>68.0</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1010401189</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45135.0</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="8">
+        <v>710.0</v>
+      </c>
+      <c r="G39" s="91">
+        <v>72.0</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1014084507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45136.0</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D40" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="8">
+        <v>626.0</v>
+      </c>
+      <c r="G40" s="91">
+        <v>77.0</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1230031949</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4">
+        <v>45137.0</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1208.0</v>
+      </c>
+      <c r="G41" s="91">
+        <v>57.0</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="3"/>
+        <v>0.04718543046</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45138.0</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D42" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="8">
+        <v>827.0</v>
+      </c>
+      <c r="G42" s="91">
+        <v>79.0</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="3"/>
+        <v>0.09552599758</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45139.0</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D43" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1141.0</v>
+      </c>
+      <c r="G43" s="91">
+        <v>64.0</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="3"/>
+        <v>0.05609114812</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45140.0</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D44" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="4">
+        <v>45141.0</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D45" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="93"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="4">
+        <v>45142.0</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D46" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="G46" s="93"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="4">
+        <v>45143.0</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D47" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="93"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="93"/>
+    </row>
+    <row r="49">
+      <c r="G49" s="93"/>
+    </row>
+    <row r="50">
+      <c r="G50" s="93"/>
+    </row>
+    <row r="51">
+      <c r="G51" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="48">
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -13405,10 +16951,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
@@ -13416,6 +16958,26 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
